--- a/biology/Botanique/Euroschinus_rubromarginatus/Euroschinus_rubromarginatus.xlsx
+++ b/biology/Botanique/Euroschinus_rubromarginatus/Euroschinus_rubromarginatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euroschinus rubromarginatus est une espèce de plantes de la famille des Anacardiaceae. Elle est endémique de Nouvelle-Calédonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euroschinus rubromarginatus est une espèce de plantes de la famille des Anacardiaceae. Elle est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1921[2], Edmund Gilbert Baker indiqué que Euroschinus rubromarginatus se présente comme un petit arbre d'environ 1,50 m de hauteur et dont les feuilles, vertes, sont bordées de rouge[2]. Les fleurs, en panicule terminal, sont largement ouvertes et de couleur jaune-verdâtre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1921, Edmund Gilbert Baker indiqué que Euroschinus rubromarginatus se présente comme un petit arbre d'environ 1,50 m de hauteur et dont les feuilles, vertes, sont bordées de rouge. Les fleurs, en panicule terminal, sont largement ouvertes et de couleur jaune-verdâtre.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Euroschinus rubromarginatus a été décrite en 1921 par le botaniste et pharmacien britannique Edmund Gilbert Baker[3] (1864–1949) dans une publication coécrite avec Alfred Barton Rendle (1865-1938) et Spencer Le Marchant Moore (1850-1931)[2]. Sa localité type est la Comboui (en), une rivière de Nouvelle-Calédonie où elle a été découverte à environ 60 m d'altitude dans une forêt de Callitris[2].
-Euroschinus rubromarginatus a pour synonyme[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Euroschinus rubromarginatus a été décrite en 1921 par le botaniste et pharmacien britannique Edmund Gilbert Baker (1864–1949) dans une publication coécrite avec Alfred Barton Rendle (1865-1938) et Spencer Le Marchant Moore (1850-1931). Sa localité type est la Comboui (en), une rivière de Nouvelle-Calédonie où elle a été découverte à environ 60 m d'altitude dans une forêt de Callitris.
+Euroschinus rubromarginatus a pour synonyme :
 Euroschinus sylvicola Baker f.</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin rubro, « rouge », et marginatus, « bordé », fait référence à ses feuilles bordées de rouge[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin rubro, « rouge », et marginatus, « bordé », fait référence à ses feuilles bordées de rouge.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en + la) A. B. Rendle, E. G. Baker et Spencer Le M. Moore, « A Systematic Account of the Plants collected in New Caledonia and the Isle of Pines by Prof. R. H. Compton, M.A., in 1914.-Part I. Flowering Plants (Angiosperms) », Transactions of the Linnean Society of London: Botany, Linnean Society of London, vol. 45, no 303,‎ septembre 1921, p. 245–417 (ISSN 1945-9459 et 1945-9351, DOI 10.1111/J.1095-8339.1921.TB00125.X, lire en ligne)</t>
         </is>
